--- a/seminar_questions_sp19_nototals.xlsx
+++ b/seminar_questions_sp19_nototals.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -156,8 +157,141 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>AJ Mitchell</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>AJ Mitchell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+methods related to this part of the study
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>AJ Mitchell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+identifying cell type
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>AJ Mitchell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+pr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>AJ Mitchell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+separate cohorts; diverse ages; low variation regarding sex
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>AJ Mitchell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+lack of confirming recoring site; no histology</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>avatar</t>
   </si>
@@ -564,537 +698,1101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N12"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>0</v>
       </c>
     </row>
